--- a/산출물/Lighthouse_테스트케이스.xlsx
+++ b/산출물/Lighthouse_테스트케이스.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -9791,6 +9791,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9803,7 +9806,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9812,20 +9824,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10047,8 +10047,8 @@
   </sheetPr>
   <dimension ref="B1:I1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10100,10 +10100,10 @@
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="21" t="s">
@@ -10122,8 +10122,8 @@
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="19" t="s">
         <v>92</v>
       </c>
@@ -10140,8 +10140,8 @@
       <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
@@ -10158,8 +10158,8 @@
       <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
@@ -10176,8 +10176,8 @@
       <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
@@ -10194,8 +10194,8 @@
       <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
@@ -10212,11 +10212,11 @@
       <c r="B9" s="18">
         <v>7</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="63" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -10232,9 +10232,9 @@
       <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -10248,9 +10248,9 @@
       <c r="B11" s="18">
         <v>9</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -10266,9 +10266,9 @@
       <c r="B12" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="22" t="s">
         <v>67</v>
       </c>
@@ -10282,9 +10282,9 @@
       <c r="B13" s="18">
         <v>11</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="26" t="s">
         <v>68</v>
       </c>
@@ -10298,9 +10298,9 @@
       <c r="B14" s="18">
         <v>12</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="26" t="s">
         <v>69</v>
       </c>
@@ -10314,9 +10314,9 @@
       <c r="B15" s="18">
         <v>13</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="22" t="s">
         <v>50</v>
       </c>
@@ -10330,9 +10330,9 @@
       <c r="B16" s="18">
         <v>14</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="22" t="s">
         <v>70</v>
       </c>
@@ -10346,8 +10346,8 @@
       <c r="B17" s="18">
         <v>15</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="61" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -10366,9 +10366,9 @@
       <c r="B18" s="18">
         <v>16</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -10384,9 +10384,9 @@
       <c r="B19" s="18">
         <v>17</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="22" t="s">
         <v>72</v>
       </c>
@@ -10400,9 +10400,9 @@
       <c r="B20" s="18">
         <v>18</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="22" t="s">
         <v>73</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="B21" s="18">
         <v>19</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
@@ -10436,8 +10436,8 @@
       <c r="B22" s="18">
         <v>20</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="61" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -10456,8 +10456,8 @@
       <c r="B23" s="18">
         <v>21</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="17" t="s">
         <v>29</v>
       </c>
@@ -10474,13 +10474,13 @@
       <c r="B24" s="18">
         <v>22</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -10496,9 +10496,9 @@
       <c r="B25" s="18">
         <v>23</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="22" t="s">
         <v>77</v>
       </c>
@@ -10512,9 +10512,9 @@
       <c r="B26" s="18">
         <v>24</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="22" t="s">
         <v>30</v>
       </c>
@@ -10528,9 +10528,9 @@
       <c r="B27" s="18">
         <v>25</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="23" t="s">
         <v>31</v>
       </c>
@@ -10544,8 +10544,8 @@
       <c r="B28" s="18">
         <v>26</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="19" t="s">
         <v>12</v>
       </c>
@@ -10564,11 +10564,11 @@
       <c r="B29" s="18">
         <v>27</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="57" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="58" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -10584,9 +10584,9 @@
       <c r="B30" s="18">
         <v>28</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="61"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="22" t="s">
         <v>79</v>
       </c>
@@ -10600,9 +10600,9 @@
       <c r="B31" s="18">
         <v>29</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="61"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="22" t="s">
         <v>80</v>
       </c>
@@ -10616,9 +10616,9 @@
       <c r="B32" s="18">
         <v>30</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="61"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="23" t="s">
         <v>33</v>
       </c>
@@ -10632,13 +10632,13 @@
       <c r="B33" s="18">
         <v>31</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="59" t="s">
         <v>96</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -10654,9 +10654,9 @@
       <c r="B34" s="18">
         <v>32</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="23" t="s">
         <v>38</v>
       </c>
@@ -10670,8 +10670,8 @@
       <c r="B35" s="18">
         <v>33</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="24" t="s">
         <v>56</v>
       </c>
@@ -10688,9 +10688,9 @@
       <c r="B36" s="18">
         <v>34</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="57" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="59" t="s">
         <v>97</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -10706,9 +10706,9 @@
       <c r="B37" s="18">
         <v>35</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="22" t="s">
         <v>111</v>
       </c>
@@ -10722,9 +10722,9 @@
       <c r="B38" s="18">
         <v>36</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="59"/>
       <c r="F38" s="22" t="s">
         <v>112</v>
       </c>
@@ -10738,9 +10738,9 @@
       <c r="B39" s="18">
         <v>37</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="22" t="s">
         <v>81</v>
       </c>
@@ -10754,22 +10754,24 @@
       <c r="B40" s="18">
         <v>38</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="23" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="16"/>
+      <c r="H40" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="18">
         <v>39</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="60" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="61" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="17" t="s">
@@ -10788,8 +10790,8 @@
       <c r="B42" s="18">
         <v>40</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="60"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="17" t="s">
         <v>36</v>
       </c>
@@ -10806,9 +10808,9 @@
       <c r="B43" s="18">
         <v>41</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="57" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="59" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -10824,9 +10826,9 @@
       <c r="B44" s="18">
         <v>42</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="22" t="s">
         <v>114</v>
       </c>
@@ -10840,9 +10842,9 @@
       <c r="B45" s="18">
         <v>43</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="22" t="s">
         <v>81</v>
       </c>
@@ -10856,13 +10858,13 @@
       <c r="B46" s="18">
         <v>45</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="59" t="s">
         <v>100</v>
       </c>
       <c r="F46" s="22" t="s">
@@ -10878,9 +10880,9 @@
       <c r="B47" s="18">
         <v>46</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="22" t="s">
         <v>40</v>
       </c>
@@ -10894,9 +10896,9 @@
       <c r="B48" s="18">
         <v>47</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="22" t="s">
         <v>84</v>
       </c>
@@ -10910,9 +10912,9 @@
       <c r="B49" s="18">
         <v>48</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="22" t="s">
         <v>85</v>
       </c>
@@ -10926,9 +10928,9 @@
       <c r="B50" s="18">
         <v>49</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="22" t="s">
         <v>41</v>
       </c>
@@ -10942,9 +10944,9 @@
       <c r="B51" s="18">
         <v>50</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="22" t="s">
         <v>86</v>
       </c>
@@ -10958,9 +10960,9 @@
       <c r="B52" s="18">
         <v>51</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="23" t="s">
         <v>43</v>
       </c>
@@ -10974,9 +10976,9 @@
       <c r="B53" s="18">
         <v>52</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="23" t="s">
         <v>42</v>
       </c>
@@ -10990,8 +10992,8 @@
       <c r="B54" s="18">
         <v>53</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="51" t="s">
         <v>58</v>
       </c>
@@ -11008,7 +11010,7 @@
       <c r="B55" s="18">
         <v>54</v>
       </c>
-      <c r="C55" s="61"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="50" t="s">
         <v>59</v>
       </c>
@@ -11028,7 +11030,7 @@
       <c r="B56" s="18">
         <v>55</v>
       </c>
-      <c r="C56" s="61"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="50" t="s">
         <v>102</v>
       </c>
@@ -11048,7 +11050,7 @@
       <c r="B57" s="18">
         <v>56</v>
       </c>
-      <c r="C57" s="61"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="50" t="s">
         <v>103</v>
       </c>
@@ -11068,10 +11070,10 @@
       <c r="B58" s="18">
         <v>57</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="55" t="s">
         <v>106</v>
       </c>
       <c r="E58" s="50" t="s">
@@ -11090,8 +11092,8 @@
       <c r="B59" s="18">
         <v>58</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="50" t="s">
         <v>108</v>
       </c>
@@ -11108,8 +11110,8 @@
       <c r="B60" s="18">
         <v>59</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="52" t="s">
         <v>109</v>
       </c>
@@ -11126,9 +11128,9 @@
       <c r="B61" s="18">
         <v>60</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="53"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="54"/>
       <c r="F61" s="22" t="s">
         <v>91</v>
       </c>
@@ -11142,7 +11144,7 @@
       <c r="B62" s="18">
         <v>61</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="55" t="s">
         <v>125</v>
       </c>
       <c r="D62" s="52" t="s">
@@ -11164,8 +11166,8 @@
       <c r="B63" s="18">
         <v>62</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="64"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="50" t="s">
         <v>127</v>
       </c>
@@ -11182,8 +11184,8 @@
       <c r="B64" s="18">
         <v>63</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="64"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="51" t="s">
         <v>128</v>
       </c>
@@ -11200,8 +11202,8 @@
       <c r="B65" s="18">
         <v>64</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="53"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="50" t="s">
         <v>129</v>
       </c>
@@ -11218,7 +11220,7 @@
       <c r="B66" s="18">
         <v>65</v>
       </c>
-      <c r="C66" s="55"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="50" t="s">
         <v>130</v>
       </c>
@@ -11238,7 +11240,7 @@
       <c r="B67" s="18">
         <v>66</v>
       </c>
-      <c r="C67" s="55"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="50" t="s">
         <v>132</v>
       </c>
@@ -11258,7 +11260,7 @@
       <c r="B68" s="18">
         <v>67</v>
       </c>
-      <c r="C68" s="56"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="50" t="s">
         <v>134</v>
       </c>
@@ -19384,6 +19386,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="C3:C23"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="C62:C68"/>
     <mergeCell ref="C33:C45"/>
@@ -19398,19 +19413,6 @@
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="D58:D61"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="C3:C23"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C24:C32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
